--- a/BTH/Thuc_hanh_Excel_Co_ban 2.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Nhap-Mon-Tin-Hoc-TH\BTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{8F5EA060-29FB-4F14-9748-8F41E80EE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE5476F-CDF8-40AF-9F3C-364DA819B589}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A528656-6FCC-4FE1-8807-EA131CA901E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="9" activeTab="9" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="10" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Bai8" sheetId="9" r:id="rId9"/>
     <sheet name="Bai9" sheetId="10" r:id="rId10"/>
+    <sheet name="Bai10" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Bai10'!$A$29:$I$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Bai8'!$B$4:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Bai9'!$A$28:$G$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,8 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="261">
   <si>
     <t>CỬA HÀNG VẬT TƯ</t>
   </si>
@@ -754,17 +755,120 @@
   </si>
   <si>
     <t>ĐLB2V</t>
+  </si>
+  <si>
+    <t>TỔNG SỐ KHÁCH</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Số CT</t>
+  </si>
+  <si>
+    <t>Mã hàng</t>
+  </si>
+  <si>
+    <t>Số lượng
+(kg)</t>
+  </si>
+  <si>
+    <t>Đơn giá
+(VNĐ)</t>
+  </si>
+  <si>
+    <t>Trị giá
+hàng</t>
+  </si>
+  <si>
+    <t>Vận
+chuyển</t>
+  </si>
+  <si>
+    <t>Thuế</t>
+  </si>
+  <si>
+    <t>DN-005</t>
+  </si>
+  <si>
+    <t>LD-001</t>
+  </si>
+  <si>
+    <t>TN-002</t>
+  </si>
+  <si>
+    <t>LD-002</t>
+  </si>
+  <si>
+    <t>TN-004</t>
+  </si>
+  <si>
+    <t>SB-012</t>
+  </si>
+  <si>
+    <t>TN-005</t>
+  </si>
+  <si>
+    <t>LD-004</t>
+  </si>
+  <si>
+    <t>LD-005</t>
+  </si>
+  <si>
+    <t>DN-012</t>
+  </si>
+  <si>
+    <t>N-15</t>
+  </si>
+  <si>
+    <t>N-20</t>
+  </si>
+  <si>
+    <t>X-05</t>
+  </si>
+  <si>
+    <t>X-10</t>
+  </si>
+  <si>
+    <t>Bảng chi phí</t>
+  </si>
+  <si>
+    <t>Khu vực</t>
+  </si>
+  <si>
+    <t>Giá vận chuyển
+(1 kg hàng)</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tổng cộng
+vận chuyển</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +907,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -934,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1014,9 +1124,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1066,9 +1186,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1086,7 +1215,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1558,7 +1687,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1875,6 +2004,575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bai9'!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TỔNG SỐ KHÁCH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bai9'!$J$14:$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NHA TRANG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ĐÀ LẠT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HÀ NỘI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bai9'!$J$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31F7-47BA-9DDA-75EA4A3565C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1819803952"/>
+        <c:axId val="1819809360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1819803952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819809360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1819809360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819803952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bai10'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tổng cộng
+vận chuyển</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bai10'!$K$7:$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bai10'!$N$7:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8387500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1875000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6220000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79A2-4C53-BA43-EFC5991D01EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1570030576"/>
+        <c:axId val="1570040144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1570030576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570040144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1570040144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1570030576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1955,6 +2653,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2459,6 +3237,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3023,6 +4807,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C549CA-ACF1-280E-B6FF-6F33112FD37A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>143608</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90854</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A2EEDF-FED2-4768-9311-51924ED1699D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438807</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249621</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55180</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B78D8E-AAC0-49D3-97C8-1EAF9E2588DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,32 +5209,32 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3391,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3416,7 +5282,7 @@
         <v>3015000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3441,7 +5307,7 @@
         <v>4020000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3466,7 +5332,7 @@
         <v>1407000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3491,7 +5357,7 @@
         <v>542700</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3516,14 +5382,14 @@
         <v>9045000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="9">
         <f>SUM(F3:F7)</f>
         <v>89700</v>
@@ -3545,34 +5411,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F5379-1614-4006-81FB-7AE9AF0E4784}">
-  <dimension ref="A1:N10"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
-    <col min="9" max="9" width="16.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="38"/>
+    <col min="2" max="2" width="13.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="38"/>
+    <col min="9" max="9" width="18" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="28.5">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="44" t="s">
         <v>206</v>
       </c>
       <c r="C1" s="34" t="s">
@@ -3590,85 +5458,100 @@
       <c r="G1" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-    </row>
-    <row r="2" spans="1:14" ht="15">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>VLOOKUP(LEFT(B2,2),$I$4:$J$6,2,0)</f>
-        <v>NHA TRANG</v>
+        <f t="shared" ref="C2:C10" si="0">VLOOKUP(LEFT(B2,2),$I$4:$J$6,2,0)</f>
+        <v>ĐÀ LẠT</v>
       </c>
       <c r="D2" s="37" t="str">
-        <f>HLOOKUP(MID(B2,3,1),$I$8:$K$9,2,0)</f>
+        <f t="shared" ref="D2:D10" si="1">HLOOKUP(MID(B2,3,1),$I$8:$K$9,2,0)</f>
         <v>XE DU LỊCH</v>
       </c>
-      <c r="E2" s="37" t="e">
-        <f>HLOOKUP(MID(C2,3,1),$I$8:$K$9,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56" t="s">
+      <c r="E2" s="37">
+        <f t="shared" ref="E2:E10" si="2">VLOOKUP(LEFT(B2,2),$I$4:$N$6,IF(MID(B2,3,2)="B1",3,IF(MID(B2,3,2)="B2",4,IF(MID(B2,3,2)="X1",5,6))),0)</f>
+        <v>672000</v>
+      </c>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2:F10" si="3">IF(RIGHT(B2,1)="V",0,IF(LEFT(B2,2)="HN",75%,50%))*E2</f>
+        <v>336000</v>
+      </c>
+      <c r="G2" s="37">
+        <f t="shared" ref="G2:G10" si="4">E2+F2</f>
+        <v>1008000</v>
+      </c>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="N2" s="56"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
+      <c r="N2" s="60"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f t="shared" ref="C3:C10" si="0">VLOOKUP(LEFT(B3,2),$I$4:$J$6,2,0)</f>
-        <v>NHA TRANG</v>
+        <f t="shared" si="0"/>
+        <v>ĐÀ LẠT</v>
       </c>
       <c r="D3" s="37" t="str">
-        <f t="shared" ref="D3:D10" si="1">HLOOKUP(MID(B3,3,1),$I$8:$K$9,2,0)</f>
-        <v>XE DU LỊCH</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E3" s="37">
+        <f t="shared" si="2"/>
+        <v>1170000</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <f t="shared" si="4"/>
+        <v>1170000</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="39" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -3683,9 +5566,18 @@
         <f t="shared" si="1"/>
         <v>MÁY BAY</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="37">
+        <f t="shared" si="2"/>
+        <v>3970000</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" si="4"/>
+        <v>3970000</v>
+      </c>
       <c r="I4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3705,7 +5597,7 @@
         <v>847000</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -3720,9 +5612,18 @@
         <f t="shared" si="1"/>
         <v>MÁY BAY</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="37">
+        <f t="shared" si="2"/>
+        <v>4150000</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="3"/>
+        <v>3112500</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" si="4"/>
+        <v>7262500</v>
+      </c>
       <c r="I5" s="37" t="s">
         <v>118</v>
       </c>
@@ -3742,24 +5643,33 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C6" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>ĐÀ LẠT</v>
+        <v>HÀ NỘI</v>
       </c>
       <c r="D6" s="37" t="str">
         <f t="shared" si="1"/>
         <v>XE DU LỊCH</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="37">
+        <f t="shared" si="2"/>
+        <v>3050000</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="4"/>
+        <v>3050000</v>
+      </c>
       <c r="I6" s="37" t="s">
         <v>220</v>
       </c>
@@ -3779,12 +5689,12 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C7" s="37" t="str">
         <f t="shared" si="0"/>
@@ -3794,16 +5704,25 @@
         <f t="shared" si="1"/>
         <v>XE DU LỊCH</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="15">
+      <c r="E7" s="37">
+        <f t="shared" si="2"/>
+        <v>2750000</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="4"/>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>7</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C8" s="37" t="str">
         <f t="shared" si="0"/>
@@ -3811,69 +5730,443 @@
       </c>
       <c r="D8" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>MÁY BAY</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="I8" s="39" t="s">
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="2"/>
+        <v>95000</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="3"/>
+        <v>47500</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="4"/>
+        <v>142500</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C9" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>HÀ NỘI</v>
+        <v>NHA TRANG</v>
       </c>
       <c r="D9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>XE DU LỊCH</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="I9" s="39" t="s">
+      <c r="E9" s="37">
+        <f t="shared" si="2"/>
+        <v>95000</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="4"/>
+        <v>95000</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>9</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="37" t="str">
         <f t="shared" si="0"/>
-        <v>ĐÀ LẠT</v>
+        <v>NHA TRANG</v>
       </c>
       <c r="D10" s="37" t="str">
         <f t="shared" si="1"/>
         <v>MÁY BAY</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="37">
+        <f t="shared" si="2"/>
+        <v>1483000</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="4"/>
+        <v>1483000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I12" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="43">
+        <f>SUMIF($C$2:$C$10,"NHA TRANG",$G$2:$G$10)</f>
+        <v>1720500</v>
+      </c>
+      <c r="K12" s="43">
+        <f>SUMIF($C$2:$C$10,"ĐÀ LẠT",$G$2:$G$10)</f>
+        <v>2178000</v>
+      </c>
+      <c r="L12" s="43">
+        <f>SUMIF($C$2:$C$10,"HÀ NỘI",$G$2:$G$10)</f>
+        <v>17032500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I15" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="43">
+        <f>COUNTIF($C$2:$C$10,"NHA TRANG")</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="43">
+        <f>COUNTIF($C$2:$C$10,"ĐÀ LẠT")</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="43">
+        <f>COUNTIF($C$2:$C$10,"HÀ NỘI")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
+        <v>1</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="37" t="str">
+        <f t="shared" ref="C29:C37" si="5">VLOOKUP(LEFT(B29,2),$I$4:$J$6,2,0)</f>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="D29" s="37" t="str">
+        <f t="shared" ref="D29:D37" si="6">HLOOKUP(MID(B29,3,1),$I$8:$K$9,2,0)</f>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E29" s="37">
+        <f t="shared" ref="E29:E37" si="7">VLOOKUP(LEFT(B29,2),$I$4:$N$6,IF(MID(B29,3,2)="B1",3,IF(MID(B29,3,2)="B2",4,IF(MID(B29,3,2)="X1",5,6))),0)</f>
+        <v>672000</v>
+      </c>
+      <c r="F29" s="37">
+        <f t="shared" ref="F29:F37" si="8">IF(RIGHT(B29,1)="V",0,IF(LEFT(B29,2)="HN",75%,50%))*E29</f>
+        <v>336000</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" ref="G29:G37" si="9">E29+F29</f>
+        <v>1008000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <v>2</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="D30" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E30" s="37">
+        <f t="shared" si="7"/>
+        <v>1170000</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="9"/>
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="36">
+        <v>3</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D31" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E31" s="37">
+        <f t="shared" si="7"/>
+        <v>3970000</v>
+      </c>
+      <c r="F31" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="37">
+        <f t="shared" si="9"/>
+        <v>3970000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
+        <v>4</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D32" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E32" s="37">
+        <f t="shared" si="7"/>
+        <v>4150000</v>
+      </c>
+      <c r="F32" s="37">
+        <f t="shared" si="8"/>
+        <v>3112500</v>
+      </c>
+      <c r="G32" s="37">
+        <f t="shared" si="9"/>
+        <v>7262500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36">
+        <v>5</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D33" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="7"/>
+        <v>3050000</v>
+      </c>
+      <c r="F33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" si="9"/>
+        <v>3050000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
+        <v>6</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D34" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" si="7"/>
+        <v>2750000</v>
+      </c>
+      <c r="F34" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" si="9"/>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
+        <v>7</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D35" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E35" s="37">
+        <f t="shared" si="7"/>
+        <v>95000</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" si="8"/>
+        <v>47500</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" si="9"/>
+        <v>142500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>8</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D36" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E36" s="37">
+        <f t="shared" si="7"/>
+        <v>95000</v>
+      </c>
+      <c r="F36" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="37">
+        <f t="shared" si="9"/>
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
+        <v>9</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D37" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E37" s="37">
+        <f t="shared" si="7"/>
+        <v>1483000</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="37">
+        <f t="shared" si="9"/>
+        <v>1483000</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A28:G37" xr:uid="{440F5379-1614-4006-81FB-7AE9AF0E4784}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*B*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G10">
+    <sortCondition ref="C2:C10"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
@@ -3882,6 +6175,956 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195D40BA-E0BA-4898-80CB-D892E9069160}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="61">
+        <v>36960</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="62">
+        <v>250500</v>
+      </c>
+      <c r="E2" s="1">
+        <f>HLOOKUP(C2,$L$2:$O$3,2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
+        <v>501000000</v>
+      </c>
+      <c r="G2" s="1">
+        <f>D2*VLOOKUP(LEFT(B2,2),$K$7:$M$10,2,0)</f>
+        <v>6262500</v>
+      </c>
+      <c r="H2" s="1">
+        <f>VLOOKUP(LEFT(B2,2),$K$7:$M$10,3,0)*F2</f>
+        <v>2505000</v>
+      </c>
+      <c r="I2" s="1">
+        <f>F2+G2+H2</f>
+        <v>509767500</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="61">
+        <v>36960</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="62">
+        <v>65500</v>
+      </c>
+      <c r="E3" s="1">
+        <f>HLOOKUP(C3,$L$2:$O$3,2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*E3</f>
+        <v>131000000</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3*VLOOKUP(LEFT(B3,2),$K$7:$M$10,2,0)</f>
+        <v>3275000</v>
+      </c>
+      <c r="H3" s="1">
+        <f>VLOOKUP(LEFT(B3,2),$K$7:$M$10,3,0)*F3</f>
+        <v>524000</v>
+      </c>
+      <c r="I3" s="1">
+        <f>F3+G3+H3</f>
+        <v>134799000</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="62">
+        <v>75000</v>
+      </c>
+      <c r="E4" s="1">
+        <f>HLOOKUP(C4,$L$2:$O$3,2,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4*E4</f>
+        <v>135000000</v>
+      </c>
+      <c r="G4" s="1">
+        <f>D4*VLOOKUP(LEFT(B4,2),$K$7:$M$10,2,0)</f>
+        <v>1875000</v>
+      </c>
+      <c r="H4" s="1">
+        <f>VLOOKUP(LEFT(B4,2),$K$7:$M$10,3,0)*F4</f>
+        <v>675000</v>
+      </c>
+      <c r="I4" s="1">
+        <f>F4+G4+H4</f>
+        <v>137550000</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="61">
+        <v>37028</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="62">
+        <v>45000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>HLOOKUP(C5,$L$2:$O$3,2,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5*E5</f>
+        <v>81000000</v>
+      </c>
+      <c r="G5" s="1">
+        <f>D5*VLOOKUP(LEFT(B5,2),$K$7:$M$10,2,0)</f>
+        <v>1800000</v>
+      </c>
+      <c r="H5" s="1">
+        <f>VLOOKUP(LEFT(B5,2),$K$7:$M$10,3,0)*F5</f>
+        <v>202500</v>
+      </c>
+      <c r="I5" s="1">
+        <f>F5+G5+H5</f>
+        <v>83002500</v>
+      </c>
+      <c r="K5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="62">
+        <v>170000</v>
+      </c>
+      <c r="E6" s="1">
+        <f>HLOOKUP(C6,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*E6</f>
+        <v>425000000</v>
+      </c>
+      <c r="G6" s="1">
+        <f>D6*VLOOKUP(LEFT(B6,2),$K$7:$M$10,2,0)</f>
+        <v>8500000</v>
+      </c>
+      <c r="H6" s="1">
+        <f>VLOOKUP(LEFT(B6,2),$K$7:$M$10,3,0)*F6</f>
+        <v>1700000</v>
+      </c>
+      <c r="I6" s="1">
+        <f>F6+G6+H6</f>
+        <v>435200000</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="62">
+        <v>70000</v>
+      </c>
+      <c r="E7" s="1">
+        <f>HLOOKUP(C7,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*E7</f>
+        <v>175000000</v>
+      </c>
+      <c r="G7" s="1">
+        <f>D7*VLOOKUP(LEFT(B7,2),$K$7:$M$10,2,0)</f>
+        <v>3500000</v>
+      </c>
+      <c r="H7" s="1">
+        <f>VLOOKUP(LEFT(B7,2),$K$7:$M$10,3,0)*F7</f>
+        <v>700000</v>
+      </c>
+      <c r="I7" s="1">
+        <f>F7+G7+H7</f>
+        <v>179200000</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="1">
+        <v>25</v>
+      </c>
+      <c r="M7" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUMIF($B$2:$B$11,"DN****",$G$2:$G$11)</f>
+        <v>8387500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="61">
+        <v>37027</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="62">
+        <v>85000</v>
+      </c>
+      <c r="E8" s="1">
+        <f>HLOOKUP(C8,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8*E8</f>
+        <v>212500000</v>
+      </c>
+      <c r="G8" s="1">
+        <f>D8*VLOOKUP(LEFT(B8,2),$K$7:$M$10,2,0)</f>
+        <v>2125000</v>
+      </c>
+      <c r="H8" s="1">
+        <f>VLOOKUP(LEFT(B8,2),$K$7:$M$10,3,0)*F8</f>
+        <v>1062500</v>
+      </c>
+      <c r="I8" s="1">
+        <f>F8+G8+H8</f>
+        <v>215687500</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="1">
+        <v>50</v>
+      </c>
+      <c r="M8" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUMIF($B$2:$B$11,"LD****",$G$2:$G$11)</f>
+        <v>21300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
+        <v>36992</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="62">
+        <v>60500</v>
+      </c>
+      <c r="E9" s="1">
+        <f>HLOOKUP(C9,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*E9</f>
+        <v>139150000</v>
+      </c>
+      <c r="G9" s="1">
+        <f>D9*VLOOKUP(LEFT(B9,2),$K$7:$M$10,2,0)</f>
+        <v>2420000</v>
+      </c>
+      <c r="H9" s="1">
+        <f>VLOOKUP(LEFT(B9,2),$K$7:$M$10,3,0)*F9</f>
+        <v>347875</v>
+      </c>
+      <c r="I9" s="1">
+        <f>F9+G9+H9</f>
+        <v>141917875</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" s="1">
+        <v>25</v>
+      </c>
+      <c r="M9" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <f>SUMIF($B$2:$B$11,"SB****",$G$2:$G$11)</f>
+        <v>1875000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="61">
+        <v>36993</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="62">
+        <v>120500</v>
+      </c>
+      <c r="E10" s="1">
+        <f>HLOOKUP(C10,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10*E10</f>
+        <v>277150000</v>
+      </c>
+      <c r="G10" s="1">
+        <f>D10*VLOOKUP(LEFT(B10,2),$K$7:$M$10,2,0)</f>
+        <v>6025000</v>
+      </c>
+      <c r="H10" s="1">
+        <f>VLOOKUP(LEFT(B10,2),$K$7:$M$10,3,0)*F10</f>
+        <v>1108600</v>
+      </c>
+      <c r="I10" s="1">
+        <f>F10+G10+H10</f>
+        <v>284283600</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="1">
+        <v>40</v>
+      </c>
+      <c r="M10" s="63">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUMIF($B$2:$B$11,"TN****",$G$2:$G$11)</f>
+        <v>6220000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="61">
+        <v>36996</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="62">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="1">
+        <f>HLOOKUP(C11,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*E11</f>
+        <v>115000000</v>
+      </c>
+      <c r="G11" s="1">
+        <f>D11*VLOOKUP(LEFT(B11,2),$K$7:$M$10,2,0)</f>
+        <v>2000000</v>
+      </c>
+      <c r="H11" s="1">
+        <f>VLOOKUP(LEFT(B11,2),$K$7:$M$10,3,0)*F11</f>
+        <v>287500</v>
+      </c>
+      <c r="I11" s="1">
+        <f>F11+G11+H11</f>
+        <v>117287500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="1">
+        <f>SUM(D2:D11)</f>
+        <v>992000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12:H12" si="0">SUM(E2:E11)</f>
+        <v>22000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>2191800000</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>37782500</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>9112975</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUM(I2:I11)</f>
+        <v>2238695475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="61">
+        <v>36960</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="62">
+        <v>250500</v>
+      </c>
+      <c r="E30" s="1">
+        <f>HLOOKUP(C30,$L$2:$O$3,2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30*E30</f>
+        <v>501000000</v>
+      </c>
+      <c r="G30" s="1">
+        <f>D30*VLOOKUP(LEFT(B30,2),$K$7:$M$10,2,0)</f>
+        <v>6262500</v>
+      </c>
+      <c r="H30" s="1">
+        <f>VLOOKUP(LEFT(B30,2),$K$7:$M$10,3,0)*F30</f>
+        <v>2505000</v>
+      </c>
+      <c r="I30" s="1">
+        <f>F30+G30+H30</f>
+        <v>509767500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="61">
+        <v>36960</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="62">
+        <v>65500</v>
+      </c>
+      <c r="E31" s="1">
+        <f>HLOOKUP(C31,$L$2:$O$3,2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ref="F31:F39" si="1">D31*E31</f>
+        <v>131000000</v>
+      </c>
+      <c r="G31" s="1">
+        <f>D31*VLOOKUP(LEFT(B31,2),$K$7:$M$10,2,0)</f>
+        <v>3275000</v>
+      </c>
+      <c r="H31" s="1">
+        <f>VLOOKUP(LEFT(B31,2),$K$7:$M$10,3,0)*F31</f>
+        <v>524000</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31:I39" si="2">F31+G31+H31</f>
+        <v>134799000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="62">
+        <v>75000</v>
+      </c>
+      <c r="E32" s="1">
+        <f>HLOOKUP(C32,$L$2:$O$3,2,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>135000000</v>
+      </c>
+      <c r="G32" s="1">
+        <f>D32*VLOOKUP(LEFT(B32,2),$K$7:$M$10,2,0)</f>
+        <v>1875000</v>
+      </c>
+      <c r="H32" s="1">
+        <f>VLOOKUP(LEFT(B32,2),$K$7:$M$10,3,0)*F32</f>
+        <v>675000</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>137550000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61">
+        <v>37028</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="62">
+        <v>45000</v>
+      </c>
+      <c r="E33" s="1">
+        <f>HLOOKUP(C33,$L$2:$O$3,2,0)</f>
+        <v>1800</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>81000000</v>
+      </c>
+      <c r="G33" s="1">
+        <f>D33*VLOOKUP(LEFT(B33,2),$K$7:$M$10,2,0)</f>
+        <v>1800000</v>
+      </c>
+      <c r="H33" s="1">
+        <f>VLOOKUP(LEFT(B33,2),$K$7:$M$10,3,0)*F33</f>
+        <v>202500</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>83002500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="62">
+        <v>170000</v>
+      </c>
+      <c r="E34" s="1">
+        <f>HLOOKUP(C34,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>425000000</v>
+      </c>
+      <c r="G34" s="1">
+        <f>D34*VLOOKUP(LEFT(B34,2),$K$7:$M$10,2,0)</f>
+        <v>8500000</v>
+      </c>
+      <c r="H34" s="1">
+        <f>VLOOKUP(LEFT(B34,2),$K$7:$M$10,3,0)*F34</f>
+        <v>1700000</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>435200000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="61">
+        <v>37023</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="62">
+        <v>70000</v>
+      </c>
+      <c r="E35" s="1">
+        <f>HLOOKUP(C35,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>175000000</v>
+      </c>
+      <c r="G35" s="1">
+        <f>D35*VLOOKUP(LEFT(B35,2),$K$7:$M$10,2,0)</f>
+        <v>3500000</v>
+      </c>
+      <c r="H35" s="1">
+        <f>VLOOKUP(LEFT(B35,2),$K$7:$M$10,3,0)*F35</f>
+        <v>700000</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>179200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="61">
+        <v>37027</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="62">
+        <v>85000</v>
+      </c>
+      <c r="E36" s="1">
+        <f>HLOOKUP(C36,$L$2:$O$3,2,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>212500000</v>
+      </c>
+      <c r="G36" s="1">
+        <f>D36*VLOOKUP(LEFT(B36,2),$K$7:$M$10,2,0)</f>
+        <v>2125000</v>
+      </c>
+      <c r="H36" s="1">
+        <f>VLOOKUP(LEFT(B36,2),$K$7:$M$10,3,0)*F36</f>
+        <v>1062500</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>215687500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61">
+        <v>36992</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="62">
+        <v>60500</v>
+      </c>
+      <c r="E37" s="1">
+        <f>HLOOKUP(C37,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>139150000</v>
+      </c>
+      <c r="G37" s="1">
+        <f>D37*VLOOKUP(LEFT(B37,2),$K$7:$M$10,2,0)</f>
+        <v>2420000</v>
+      </c>
+      <c r="H37" s="1">
+        <f>VLOOKUP(LEFT(B37,2),$K$7:$M$10,3,0)*F37</f>
+        <v>347875</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="2"/>
+        <v>141917875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="61">
+        <v>36993</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="62">
+        <v>120500</v>
+      </c>
+      <c r="E38" s="1">
+        <f>HLOOKUP(C38,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>277150000</v>
+      </c>
+      <c r="G38" s="1">
+        <f>D38*VLOOKUP(LEFT(B38,2),$K$7:$M$10,2,0)</f>
+        <v>6025000</v>
+      </c>
+      <c r="H38" s="1">
+        <f>VLOOKUP(LEFT(B38,2),$K$7:$M$10,3,0)*F38</f>
+        <v>1108600</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="2"/>
+        <v>284283600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61">
+        <v>36996</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="62">
+        <v>50000</v>
+      </c>
+      <c r="E39" s="1">
+        <f>HLOOKUP(C39,$L$2:$O$3,2,0)</f>
+        <v>2300</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>115000000</v>
+      </c>
+      <c r="G39" s="1">
+        <f>D39*VLOOKUP(LEFT(B39,2),$K$7:$M$10,2,0)</f>
+        <v>2000000</v>
+      </c>
+      <c r="H39" s="1">
+        <f>VLOOKUP(LEFT(B39,2),$K$7:$M$10,3,0)*F39</f>
+        <v>287500</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="2"/>
+        <v>117287500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="1">
+        <f>SUM(D30:D39)</f>
+        <v>992000</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40" si="3">SUM(E30:E39)</f>
+        <v>22000</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40" si="4">SUM(F30:F39)</f>
+        <v>2191800000</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40" si="5">SUM(G30:G39)</f>
+        <v>37782500</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ref="H40" si="6">SUM(H30:H39)</f>
+        <v>9112975</v>
+      </c>
+      <c r="I40" s="1">
+        <f>SUM(I30:I39)</f>
+        <v>2238695475</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A29:I40" xr:uid="{195D40BA-E0BA-4898-80CB-D892E9069160}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter val="*LD*"/>
+        <customFilter val="*DN*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A40:C40"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3893,30 +7136,30 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>19</v>
       </c>
@@ -3924,7 +7167,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -3932,7 +7175,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +7201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3986,7 +7229,7 @@
         <v>8540100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4014,7 +7257,7 @@
         <v>7732600</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4042,7 +7285,7 @@
         <v>5439000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4070,7 +7313,7 @@
         <v>6034600</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4098,7 +7341,7 @@
         <v>5020400</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4126,7 +7369,7 @@
         <v>5733400</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4154,15 +7397,15 @@
         <v>5932600</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="9">
         <f>SUM(G5:G11)</f>
         <v>5000000</v>
@@ -4189,42 +7432,42 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="47" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2">
         <v>25000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +7493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4279,7 +7522,7 @@
         <v>4626206.8965517245</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4308,7 +7551,7 @@
         <v>3800689.6551724137</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4337,7 +7580,7 @@
         <v>3666206.8965517241</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4366,7 +7609,7 @@
         <v>3428965.5172413792</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4395,7 +7638,7 @@
         <v>3168965.5172413792</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4424,7 +7667,7 @@
         <v>3197241.3793103448</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4453,13 +7696,13 @@
         <v>3111724.1379310344</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="1">
         <f>SUM(E4:E10)</f>
         <v>174</v>
@@ -4495,42 +7738,42 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="28.9">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
@@ -4556,7 +7799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4586,7 +7829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4616,7 +7859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4646,7 +7889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4676,7 +7919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4706,7 +7949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4736,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4766,7 +8009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4796,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4826,7 +8069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4856,34 +8099,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="49" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>6.7333333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="41" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="11">
         <f>MAX(E4:E13)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="41" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="11">
         <f>MIN(E4:E13)</f>
         <v>4.666666666666667</v>
@@ -4909,35 +8152,35 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="28.9">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>78</v>
       </c>
@@ -4978,7 +8221,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -5024,7 +8267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -5070,7 +8313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -5116,7 +8359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -5153,7 +8396,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -5190,7 +8433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -5239,7 +8482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -5308,22 +8551,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="28.9">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -5349,7 +8592,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5406,7 +8649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5466,7 +8709,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -5511,7 +8754,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -5556,7 +8799,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5586,7 +8829,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5616,7 +8859,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -5646,7 +8889,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5676,7 +8919,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -5706,7 +8949,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -5736,7 +8979,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -5766,7 +9009,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5796,7 +9039,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
     <sortCondition ref="E3:E14"/>
@@ -5810,27 +9053,27 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="20"/>
-    <col min="16" max="16" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="20"/>
-    <col min="18" max="18" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="20"/>
+    <col min="3" max="3" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="13.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="20"/>
+    <col min="16" max="16" width="12.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="20"/>
+    <col min="18" max="18" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="21" customFormat="1" ht="27.6">
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>57</v>
       </c>
@@ -5859,7 +9102,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5899,7 +9142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -5957,7 +9200,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -6015,7 +9258,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -6073,7 +9316,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -6119,7 +9362,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -6153,7 +9396,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -6187,7 +9430,7 @@
         <v>9166.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -6221,14 +9464,14 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="22">
         <f>SUM(F2:F9)</f>
         <v>41100</v>
@@ -6258,7 +9501,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K11" s="22" t="s">
         <v>169</v>
       </c>
@@ -6275,7 +9518,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
         <v>170</v>
@@ -6287,7 +9530,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" s="22" t="s">
         <v>156</v>
       </c>
@@ -6304,7 +9547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="22" t="s">
         <v>159</v>
       </c>
@@ -6321,7 +9564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" s="22" t="s">
         <v>161</v>
       </c>
@@ -6355,40 +9598,40 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:15" ht="28.9">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -6417,7 +9660,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6451,7 +9694,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -6495,7 +9738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -6544,7 +9787,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6593,7 +9836,7 @@
         <v>1980000</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6642,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -6676,7 +9919,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -6710,7 +9953,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -6744,12 +9987,12 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>199</v>
       </c>
@@ -6766,7 +10009,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>200</v>
       </c>
@@ -6783,7 +10026,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>201</v>
       </c>
@@ -6800,7 +10043,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>202</v>
       </c>
@@ -6817,12 +10060,12 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -6836,7 +10079,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -6850,7 +10093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>203</v>
       </c>
@@ -6864,7 +10107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>204</v>
       </c>
@@ -6899,34 +10142,34 @@
   <dimension ref="A2:O17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="19.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="20"/>
+    <col min="14" max="14" width="9.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="21" customFormat="1">
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" ht="27.6">
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -6970,7 +10213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -6984,23 +10227,23 @@
         <v>181</v>
       </c>
       <c r="E4" s="22" t="str">
-        <f>VLOOKUP(LEFT(D4,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" ref="E4:E11" si="0">VLOOKUP(LEFT(D4,1),$K$4:$L$6,2,0)</f>
         <v>HUYNDAI</v>
       </c>
       <c r="F4" s="22" t="str">
-        <f>HLOOKUP(MID(D4,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" ref="F4:F11" si="1">HLOOKUP(MID(D4,2,2),$L$8:$N$9,2,0)</f>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G4" s="22">
-        <f>VLOOKUP(E4,$L$4:$O$6,IF(MID(D4,2,2)="VT",2,IF(MID(D4,2,2)="NT",3,4)),0)*C4</f>
+        <f t="shared" ref="G4:G11" si="2">VLOOKUP(E4,$L$4:$O$6,IF(MID(D4,2,2)="VT",2,IF(MID(D4,2,2)="NT",3,4)),0)*C4</f>
         <v>2000000</v>
       </c>
       <c r="H4" s="22">
-        <f>IF(RIGHT(D4,1)="A",0,10%*G4)</f>
+        <f t="shared" ref="H4:H11" si="3">IF(RIGHT(D4,1)="A",0,10%*G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="22">
-        <f>G4-H4</f>
+        <f t="shared" ref="I4:I11" si="4">G4-H4</f>
         <v>2000000</v>
       </c>
       <c r="K4" s="24" t="s">
@@ -7019,7 +10262,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -7033,23 +10276,23 @@
         <v>183</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f>VLOOKUP(LEFT(D5,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>HUYNDAI</v>
       </c>
       <c r="F5" s="22" t="str">
-        <f>HLOOKUP(MID(D5,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G5" s="22">
-        <f>VLOOKUP(E5,$L$4:$O$6,IF(MID(D5,2,2)="VT",2,IF(MID(D5,2,2)="NT",3,4)),0)*C5</f>
+        <f t="shared" si="2"/>
         <v>3500000</v>
       </c>
       <c r="H5" s="22">
-        <f>IF(RIGHT(D5,1)="A",0,10%*G5)</f>
+        <f t="shared" si="3"/>
         <v>350000</v>
       </c>
       <c r="I5" s="22">
-        <f>G5-H5</f>
+        <f t="shared" si="4"/>
         <v>3150000</v>
       </c>
       <c r="J5" s="30"/>
@@ -7069,7 +10312,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -7083,23 +10326,23 @@
         <v>188</v>
       </c>
       <c r="E6" s="22" t="str">
-        <f>VLOOKUP(LEFT(D6,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F6" s="22" t="str">
-        <f>HLOOKUP(MID(D6,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>ĐÀ LẠT</v>
       </c>
       <c r="G6" s="22">
-        <f>VLOOKUP(E6,$L$4:$O$6,IF(MID(D6,2,2)="VT",2,IF(MID(D6,2,2)="NT",3,4)),0)*C6</f>
+        <f t="shared" si="2"/>
         <v>2200000</v>
       </c>
       <c r="H6" s="22">
-        <f>IF(RIGHT(D6,1)="A",0,10%*G6)</f>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
       <c r="I6" s="22">
-        <f>G6-H6</f>
+        <f t="shared" si="4"/>
         <v>1980000</v>
       </c>
       <c r="J6" s="30"/>
@@ -7119,7 +10362,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -7133,28 +10376,28 @@
         <v>191</v>
       </c>
       <c r="E7" s="22" t="str">
-        <f>VLOOKUP(LEFT(D7,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F7" s="22" t="str">
-        <f>HLOOKUP(MID(D7,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G7" s="22">
-        <f>VLOOKUP(E7,$L$4:$O$6,IF(MID(D7,2,2)="VT",2,IF(MID(D7,2,2)="NT",3,4)),0)*C7</f>
+        <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
       <c r="H7" s="22">
-        <f>IF(RIGHT(D7,1)="A",0,10%*G7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="22">
-        <f>G7-H7</f>
+        <f t="shared" si="4"/>
         <v>3600000</v>
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -7168,23 +10411,23 @@
         <v>185</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f>VLOOKUP(LEFT(D8,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f>HLOOKUP(MID(D8,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G8" s="22">
-        <f>VLOOKUP(E8,$L$4:$O$6,IF(MID(D8,2,2)="VT",2,IF(MID(D8,2,2)="NT",3,4)),0)*C8</f>
+        <f t="shared" si="2"/>
         <v>900000</v>
       </c>
       <c r="H8" s="22">
-        <f>IF(RIGHT(D8,1)="A",0,10%*G8)</f>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="I8" s="22">
-        <f>G8-H8</f>
+        <f t="shared" si="4"/>
         <v>810000</v>
       </c>
       <c r="K8" s="31" t="s">
@@ -7200,7 +10443,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -7214,23 +10457,23 @@
         <v>196</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f>VLOOKUP(LEFT(D9,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f>HLOOKUP(MID(D9,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G9" s="22">
-        <f>VLOOKUP(E9,$L$4:$O$6,IF(MID(D9,2,2)="VT",2,IF(MID(D9,2,2)="NT",3,4)),0)*C9</f>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="H9" s="22">
-        <f>IF(RIGHT(D9,1)="A",0,10%*G9)</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I9" s="22">
-        <f>G9-H9</f>
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
       <c r="K9" s="31" t="s">
@@ -7246,7 +10489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -7260,27 +10503,27 @@
         <v>198</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f>VLOOKUP(LEFT(D10,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F10" s="22" t="str">
-        <f>HLOOKUP(MID(D10,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G10" s="22">
-        <f>VLOOKUP(E10,$L$4:$O$6,IF(MID(D10,2,2)="VT",2,IF(MID(D10,2,2)="NT",3,4)),0)*C10</f>
+        <f t="shared" si="2"/>
         <v>3200000</v>
       </c>
       <c r="H10" s="22">
-        <f>IF(RIGHT(D10,1)="A",0,10%*G10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="22">
-        <f>G10-H10</f>
+        <f t="shared" si="4"/>
         <v>3200000</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>8</v>
       </c>
@@ -7294,23 +10537,23 @@
         <v>194</v>
       </c>
       <c r="E11" s="22" t="str">
-        <f>VLOOKUP(LEFT(D11,1),$K$4:$L$6,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F11" s="22" t="str">
-        <f>HLOOKUP(MID(D11,2,2),$L$8:$N$9,2,0)</f>
+        <f t="shared" si="1"/>
         <v>ĐÀ LẠT</v>
       </c>
       <c r="G11" s="22">
-        <f>VLOOKUP(E11,$L$4:$O$6,IF(MID(D11,2,2)="VT",2,IF(MID(D11,2,2)="NT",3,4)),0)*C11</f>
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="H11" s="22">
-        <f>IF(RIGHT(D11,1)="A",0,10%*G11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="22">
-        <f>G11-H11</f>
+        <f t="shared" si="4"/>
         <v>3000000</v>
       </c>
       <c r="K11" s="32" t="s">
@@ -7326,7 +10569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K12" s="32" t="s">
         <v>204</v>
       </c>
@@ -7343,7 +10586,7 @@
         <v>7160000</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K14" s="32"/>
       <c r="L14" s="32" t="s">
         <v>122</v>
@@ -7355,7 +10598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15" s="32" t="s">
         <v>186</v>
       </c>
@@ -7372,7 +10615,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K16" s="32" t="s">
         <v>192</v>
       </c>
@@ -7389,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="11:14">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17" s="32" t="s">
         <v>189</v>
       </c>
